--- a/tests/samples/lists_extra_commas.xlsx
+++ b/tests/samples/lists_extra_commas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog" sheetId="1" state="visible" r:id="rId2"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="654">
   <si>
     <t xml:space="preserve">catalog_title</t>
   </si>
@@ -257,6 +257,9 @@
     <t xml:space="preserve">justiciaabierta@jus.gov.ar</t>
   </si>
   <si>
+    <t xml:space="preserve">esp,eng,,</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://datos.gob.ar/superThemeTaxonomy.json</t>
   </si>
   <si>
@@ -426,7 +429,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">JUST</t>
+    <t xml:space="preserve">JUST,ENVI,EDUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informacion-juridica,otro-theme,yet-another-therme</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -469,7 +475,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CAJ,acceso a justicia,acceso a la justicia,asesoramiento jurídico,casas de justicia,justicia,vulnerable</t>
+    <t xml:space="preserve">JUST,EDUC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso-a-justicia,yet-another-theme,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAJ,acceso a justicia,acceso a la justicia,asesoramiento jurídico,casas de justicia,justicia,vulnerable,</t>
   </si>
   <si>
     <t xml:space="preserve">R/P3M</t>
@@ -509,8 +521,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">JUST,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema-registral,</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-capturas,detención,rebeldías</t>
+Capturas,</t>
   </si>
   <si>
     <t xml:space="preserve">R/P1D</t>
@@ -551,8 +569,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">JUST,,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anticorrupcion,,</t>
+  </si>
+  <si>
     <t xml:space="preserve">DDJJ,Ley 25188,Ley 26857,anticorrupción,
-funcionarios,patrimonio,ética pública</t>
+funcionarios,patrimonio,ética pública,,</t>
   </si>
   <si>
     <t xml:space="preserve">eventual</t>
@@ -583,6 +607,9 @@
   </si>
   <si>
     <t xml:space="preserve">dmiralles@jus.gov.ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUST</t>
   </si>
   <si>
     <t xml:space="preserve">IGJ,asambleas,asociaciones civiles,autoridades,fundaciones,personas jurídicas,sociedades</t>
@@ -2706,25 +2733,25 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="15.5303643724696"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,7 +2792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2780,13 +2807,15 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2820,120 +2849,120 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.5303643724696"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2954,881 +2983,881 @@
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="15.5303643724696"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G2" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="74.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="I7" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="11" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="I9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="14" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="11" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="74.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="14" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="11" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="14" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>197</v>
-      </c>
       <c r="F16" s="13" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="L16" s="13" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="11" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="11" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3874,95 +3903,95 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.2024291497976"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.9838056680162"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.6275303643725"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.2712550607288"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="15.5303643724696"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="22" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I2" s="23" t="n">
         <v>1</v>
@@ -3970,35 +3999,35 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="N2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I3" s="23" t="n">
         <v>2</v>
@@ -4006,35 +4035,35 @@
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="N3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="22" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I4" s="23" t="n">
         <v>3</v>
@@ -4042,35 +4071,35 @@
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="N4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I5" s="23" t="n">
         <v>4</v>
@@ -4078,35 +4107,35 @@
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I6" s="23" t="n">
         <v>5</v>
@@ -4114,35 +4143,35 @@
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="N6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I7" s="23" t="n">
         <v>6</v>
@@ -4150,35 +4179,35 @@
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I8" s="23" t="n">
         <v>7</v>
@@ -4186,35 +4215,35 @@
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="N8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="22" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I9" s="23" t="n">
         <v>8</v>
@@ -4222,35 +4251,35 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="25" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I10" s="23" t="n">
         <v>9</v>
@@ -4258,35 +4287,35 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="24" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="N10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="25" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="I11" s="23" t="n">
         <v>10</v>
@@ -4294,35 +4323,35 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="24" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="25" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="I12" s="23" t="n">
         <v>11</v>
@@ -4330,35 +4359,35 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="24" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="N12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="25" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="I13" s="23" t="n">
         <v>12</v>
@@ -4366,35 +4395,35 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="24" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="N13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="25" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="I14" s="23" t="n">
         <v>13</v>
@@ -4402,35 +4431,35 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="24" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="25" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="I15" s="23" t="n">
         <v>14</v>
@@ -4438,35 +4467,35 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="24" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="N15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="25" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="I16" s="23" t="n">
         <v>15</v>
@@ -4474,35 +4503,35 @@
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="24" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="N16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="25" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="I17" s="23" t="n">
         <v>16</v>
@@ -4510,35 +4539,35 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="24" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="N17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="25" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="I18" s="23" t="n">
         <v>17</v>
@@ -4546,35 +4575,35 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="24" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="N18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="25" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="I19" s="23" t="n">
         <v>18</v>
@@ -4582,35 +4611,35 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="24" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="N19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="25" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="I20" s="23" t="n">
         <v>19</v>
@@ -4618,35 +4647,35 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="24" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="N20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="25" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="I21" s="23" t="n">
         <v>20</v>
@@ -4654,35 +4683,35 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="24" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="N21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="25" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="I22" s="23" t="n">
         <v>21</v>
@@ -4690,35 +4719,35 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="24" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="N22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="25" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="I23" s="23" t="n">
         <v>22</v>
@@ -4726,35 +4755,35 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="24" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="N23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="25" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="I24" s="23" t="n">
         <v>23</v>
@@ -4762,35 +4791,35 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="24" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="N24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="25" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="I25" s="23" t="n">
         <v>24</v>
@@ -4798,35 +4827,35 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="24" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="N25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="25" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="I26" s="23" t="n">
         <v>25</v>
@@ -4834,35 +4863,35 @@
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="24" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="N26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="25" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="I27" s="23" t="n">
         <v>26</v>
@@ -4870,35 +4899,35 @@
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="24" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="N27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="25" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="I28" s="23" t="n">
         <v>27</v>
@@ -4906,35 +4935,35 @@
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="24" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="N28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="25" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="I29" s="23" t="n">
         <v>28</v>
@@ -4942,35 +4971,35 @@
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="24" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="N29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="25" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="I30" s="23" t="n">
         <v>29</v>
@@ -4978,35 +5007,35 @@
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="24" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="N30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="25" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="I31" s="23" t="n">
         <v>30</v>
@@ -5014,35 +5043,35 @@
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="24" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="N31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="25" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="I32" s="23" t="n">
         <v>31</v>
@@ -5050,35 +5079,35 @@
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="24" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="25" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="I33" s="23" t="n">
         <v>32</v>
@@ -5086,35 +5115,35 @@
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="24" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="25" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I34" s="23" t="n">
         <v>33</v>
@@ -5122,35 +5151,35 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="24" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="N34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="25" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="I35" s="23" t="n">
         <v>34</v>
@@ -5158,35 +5187,35 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="24" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="N35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="25" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="I36" s="23" t="n">
         <v>35</v>
@@ -5194,35 +5223,35 @@
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
       <c r="L36" s="24" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="M36" s="24" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="N36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="25" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="I37" s="23" t="n">
         <v>36</v>
@@ -5230,35 +5259,35 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="24" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="N37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="25" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="I38" s="23" t="n">
         <v>37</v>
@@ -5266,35 +5295,35 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="24" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="N38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="24" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="25" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="I39" s="23" t="n">
         <v>38</v>
@@ -5302,35 +5331,35 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="24" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="N39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="24" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="25" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="I40" s="23" t="n">
         <v>39</v>
@@ -5338,35 +5367,35 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="24" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="M40" s="24" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="N40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="25" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="I41" s="23" t="n">
         <v>40</v>
@@ -5374,35 +5403,35 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="24" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="N41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="25" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="I42" s="23" t="n">
         <v>41</v>
@@ -5410,35 +5439,35 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="24" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="N42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="25" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="I43" s="23" t="n">
         <v>42</v>
@@ -5446,35 +5475,35 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="24" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="N43" s="21"/>
     </row>
     <row r="44" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="25" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="I44" s="23" t="n">
         <v>43</v>
@@ -5482,35 +5511,35 @@
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="24" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="M44" s="24" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="N44" s="21"/>
     </row>
     <row r="45" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="25" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="I45" s="23" t="n">
         <v>44</v>
@@ -5518,35 +5547,35 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="24" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="N45" s="21"/>
     </row>
     <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="25" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="I46" s="23" t="n">
         <v>45</v>
@@ -5554,35 +5583,35 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="24" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="N46" s="21"/>
     </row>
     <row r="47" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="25" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="I47" s="23" t="n">
         <v>46</v>
@@ -5590,35 +5619,35 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="24" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="M47" s="24" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="N47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="25" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="I48" s="23" t="n">
         <v>47</v>
@@ -5626,35 +5655,35 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
       <c r="L48" s="24" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="N48" s="21"/>
     </row>
     <row r="49" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="25" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="I49" s="23" t="n">
         <v>48</v>
@@ -5662,35 +5691,35 @@
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
       <c r="L49" s="24" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="N49" s="21"/>
     </row>
     <row r="50" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="25" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="I50" s="23" t="n">
         <v>49</v>
@@ -5698,35 +5727,35 @@
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
       <c r="L50" s="24" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M50" s="24" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="N50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="25" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="I51" s="23" t="n">
         <v>50</v>
@@ -5734,35 +5763,35 @@
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="24" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="M51" s="24" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="N51" s="21"/>
     </row>
     <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="25" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="I52" s="23" t="n">
         <v>51</v>
@@ -5770,35 +5799,35 @@
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
       <c r="L52" s="24" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="M52" s="24" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="N52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="25" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="I53" s="23" t="n">
         <v>52</v>
@@ -5806,35 +5835,35 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="24" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="M53" s="24" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="N53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="25" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="I54" s="23" t="n">
         <v>53</v>
@@ -5842,35 +5871,35 @@
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
       <c r="L54" s="24" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="M54" s="24" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="N54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="25" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="I55" s="23" t="n">
         <v>54</v>
@@ -5878,35 +5907,35 @@
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
       <c r="L55" s="24" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="M55" s="24" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="N55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="25" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="I56" s="23" t="n">
         <v>55</v>
@@ -5914,35 +5943,35 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="24" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="M56" s="24" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="N56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="25" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="I57" s="23" t="n">
         <v>56</v>
@@ -5950,10 +5979,10 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="24" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="M57" s="24" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="N57" s="21"/>
     </row>
@@ -6090,7 +6119,7 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
@@ -6098,1254 +6127,1254 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="15.5303643724696"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C43" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C44" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C45" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C46" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C47" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C48" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7380,45 +7409,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="15.5303643724696"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
